--- a/Requirement/RTM.xlsx
+++ b/Requirement/RTM.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya Kind\Desktop\QA\Internal-Banking-System\Requirement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38B52C-7FFE-4514-869F-7303F213FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B16F9314-AF35-4CA9-8409-BFF4838EBD53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>SRS-ID</t>
   </si>
@@ -247,12 +241,15 @@
   </si>
   <si>
     <t>SIQ_sys_technology_02</t>
+  </si>
+  <si>
+    <t>SIQ_user_log_05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,35 +372,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,16 +388,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,24 +734,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FFA93-99DF-404A-B427-BF0CD4D8A3B6}">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,13 +765,13 @@
       <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
@@ -777,25 +780,25 @@
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -805,8 +808,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -816,8 +819,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -827,8 +830,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -838,8 +841,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -849,8 +852,8 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -860,8 +863,8 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -871,8 +874,8 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -882,15 +885,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -902,26 +905,26 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B16" t="s">
@@ -933,9 +936,9 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -944,236 +947,246 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>40</v>
-      </c>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>54</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29" t="s">
-        <v>55</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>40</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="31"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="24"/>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
+      <c r="C25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
+      <c r="C26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="C27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="25"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C29" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="27"/>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="27"/>
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" t="s">
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" t="s">
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="27"/>
+      <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" t="s">
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="27"/>
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="27"/>
+      <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" t="s">
+      <c r="C38" s="35"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="27"/>
+      <c r="B39" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" t="s">
+      <c r="C39" s="35"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="27"/>
+      <c r="B41" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B43" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="17"/>
-      <c r="C43" s="8" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="31"/>
+      <c r="C44" s="8" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A19:A27"/>
+  <mergeCells count="14">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A31:A42"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirement/RTM.xlsx
+++ b/Requirement/RTM.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya Kind\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBFEF46-9A26-4A4B-89D8-DEE4F92D3D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B16F9314-AF35-4CA9-8409-BFF4838EBD53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>SRS-ID</t>
   </si>
@@ -54,75 +60,27 @@
     <t>SRS_user_reg_04</t>
   </si>
   <si>
-    <t>SRS_user_reg_05</t>
-  </si>
-  <si>
     <t>SRS_user_reg_06</t>
   </si>
   <si>
     <t>SRS_user_reg_07</t>
   </si>
   <si>
-    <t>SRS_user_reg_08</t>
-  </si>
-  <si>
-    <t>SRS_user_reg_09</t>
-  </si>
-  <si>
-    <t>SRS_user_reg_10</t>
-  </si>
-  <si>
     <t>SRS_user_log_01</t>
   </si>
   <si>
     <t>SRS_user_log_02</t>
   </si>
   <si>
-    <t>SRS_user_log_03</t>
-  </si>
-  <si>
-    <t>SRS_user_log_04</t>
-  </si>
-  <si>
-    <t>SRS_user_balanceEnquiry_02</t>
-  </si>
-  <si>
-    <t>SRS_user_balanceEnquiry_04</t>
-  </si>
-  <si>
-    <t>SRS_admin_addCST_01</t>
-  </si>
-  <si>
-    <t>SRS_admin_editCST_02</t>
-  </si>
-  <si>
-    <t>SRS_admin_deleteCST_03</t>
-  </si>
-  <si>
-    <t>SRS_admin_addAcc_04</t>
-  </si>
-  <si>
-    <t>SRS_admin_editAcc_05</t>
-  </si>
-  <si>
-    <t>SRS_admin_deleteAcc_06</t>
-  </si>
-  <si>
     <t>CST_REQ_01</t>
   </si>
   <si>
-    <t>CST_REQ_02</t>
-  </si>
-  <si>
     <t>CST_REQ_05</t>
   </si>
   <si>
     <t>SIQ-ID</t>
   </si>
   <si>
-    <t>SIQ_user_reg_01</t>
-  </si>
-  <si>
     <t>SIQ_user_reg_02</t>
   </si>
   <si>
@@ -138,99 +96,15 @@
     <t>SIQ_user_reg_06</t>
   </si>
   <si>
-    <t>SIQ_user_reg_07</t>
-  </si>
-  <si>
-    <t>SIQ_user_reg_08</t>
-  </si>
-  <si>
-    <t>SIQ_user_reg_09</t>
-  </si>
-  <si>
-    <t>SIQ_user_reg_10</t>
-  </si>
-  <si>
-    <t>SIQ_AdminFeatures_01</t>
-  </si>
-  <si>
-    <t>SIQ_user_balanceEnquiry_01</t>
-  </si>
-  <si>
     <t>SIQ_user_balanceEnquiry_02</t>
   </si>
   <si>
-    <t>SIQ_user_balanceEnquiry_03</t>
-  </si>
-  <si>
-    <t>SIQ_user_balanceEnquiry_04</t>
-  </si>
-  <si>
-    <t>SIQ_user_balanceEnquiry_05</t>
-  </si>
-  <si>
-    <t>SIQ_user_balanceEnquiry_06</t>
-  </si>
-  <si>
     <t>SIQ_user_log_01</t>
   </si>
   <si>
-    <t>SIQ_user_log_02</t>
-  </si>
-  <si>
-    <t>SIQ_user_log_03</t>
-  </si>
-  <si>
-    <t>SIQ_user_log_04</t>
-  </si>
-  <si>
-    <t>CST_REQ_06</t>
-  </si>
-  <si>
     <t>CST_REQ_03</t>
   </si>
   <si>
-    <t>SRS_admin_viewCSTBalance_07</t>
-  </si>
-  <si>
-    <t>SIQ_AdminResetPassword_01</t>
-  </si>
-  <si>
-    <t>SIQ_AdminResetPassword_02</t>
-  </si>
-  <si>
-    <t>SRS_User_TransactionsHistoryOverTime_01</t>
-  </si>
-  <si>
-    <t>SRS_user_Fund Transfer_03</t>
-  </si>
-  <si>
-    <t>SRS_user_Fund Transfer_03_1</t>
-  </si>
-  <si>
-    <t>SRS_user_Fund Transfer_03_2</t>
-  </si>
-  <si>
-    <t>SRS_user_Fund Transfer_03_3</t>
-  </si>
-  <si>
-    <t>SRS_user_withdraw_05</t>
-  </si>
-  <si>
-    <t>SRS_user_withdraw_05_1</t>
-  </si>
-  <si>
-    <t>SRS_user_withdraw_05_2</t>
-  </si>
-  <si>
-    <t>SRS_user_MoneyIn_06</t>
-  </si>
-  <si>
-    <t>SRS_user_AccountSwitching_07</t>
-  </si>
-  <si>
-    <t>SIQ_user_trackhistory_07</t>
-  </si>
-  <si>
     <t>CST_REQ_07</t>
   </si>
   <si>
@@ -240,17 +114,95 @@
     <t>SIQ_sys_technology_01</t>
   </si>
   <si>
-    <t>SIQ_sys_technology_02</t>
-  </si>
-  <si>
-    <t>SIQ_user_log_05</t>
+    <t>SRS_admin_accountNumField_01</t>
+  </si>
+  <si>
+    <t>SRS_admin_addUser_02</t>
+  </si>
+  <si>
+    <t>SRS_admin_addUser_03</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteUser_04</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteUser_05</t>
+  </si>
+  <si>
+    <t>SRS_admin_addAccount_06</t>
+  </si>
+  <si>
+    <t>SRS_admin_addAccount_07</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteAccount_08</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteAccount_09</t>
+  </si>
+  <si>
+    <t>SRS_admin_viewBalance_10</t>
+  </si>
+  <si>
+    <t>SRS_admin_viewBalance_11</t>
+  </si>
+  <si>
+    <t>SIQ_adminFeatures_addBankAccount_04</t>
+  </si>
+  <si>
+    <t>SIQ_adminFeatures_addUser_02</t>
+  </si>
+  <si>
+    <t>SIQ_adminFeatures_deleteUser_03</t>
+  </si>
+  <si>
+    <t>SIQ_adminFeatures_deleteBankAccount_05</t>
+  </si>
+  <si>
+    <t>SIQ_adminFeatures_viewBankAccountBalance_06</t>
+  </si>
+  <si>
+    <t>SIQ_adminFeatures_accountNumField_07</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_01</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_02</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_03</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_04</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_05</t>
+  </si>
+  <si>
+    <t>SIQ_user_bankAccount_03</t>
+  </si>
+  <si>
+    <t>SIQ_user_transactions_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CST_REQ_06</t>
+  </si>
+  <si>
+    <t>CST_REQ_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CST_REQ_02       </t>
+  </si>
+  <si>
+    <t>SIQ_user_reg_02,SIQ_user_reg_03,SIQ_user_reg_04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +236,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -333,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,17 +305,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,73 +313,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,25 +683,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FFA93-99DF-404A-B427-BF0CD4D8A3B6}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -763,430 +712,308 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" t="s">
+      <c r="C3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
+      <c r="C4" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
+      <c r="C5" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
+      <c r="C6" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
+      <c r="C7" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
+      <c r="C13" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>48</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="30"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="18" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="18" t="s">
+      <c r="B30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="33"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="18" t="s">
+      <c r="C30" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="34"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="35"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="35"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="31"/>
-      <c r="C44" s="8" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A31:A42"/>
+  <mergeCells count="15">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
